--- a/fluoropyrimidines/Fluoropyrimidines_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
+++ b/fluoropyrimidines/Fluoropyrimidines_Pre_and_Post_Test_Alerts_and_Flow_Chart.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12285" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-and Post-Test Alerts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <r>
       <t>b</t>
@@ -189,45 +189,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>CDS Alert Text</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+    <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1.5) and has an increased risk of severe toxicity when treated with capecitabine.  Reduce starting dose by 25% to 50% followed by titration of dose based on toxicityc or therapeutic drug monitoring (if available). Please consult a clinical pharmacistb for more information.</t>
+  </si>
+  <si>
+    <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1) and has an increased risk of severe toxicity when treated with capecitabine.  Reduce starting dose by 50% followed by titration of dose based on toxicityc or therapeutic drug monitoring (if available). Please consult a clinical pharmacistb for more information.</t>
+  </si>
+  <si>
+    <r>
       <t>a</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (tegafur)</t>
-    </r>
-  </si>
-  <si>
-    <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1.5) and has an increased risk of severe toxicity when treated with capecitabine.  Reduce starting dose by 25% to 50% followed by titration of dose based on toxicityc or therapeutic drug monitoring (if available). Please consult a clinical pharmacistb for more information.</t>
-  </si>
-  <si>
-    <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1) and has an increased risk of severe toxicity when treated with capecitabine.  Reduce starting dose by 50% followed by titration of dose based on toxicityc or therapeutic drug monitoring (if available). Please consult a clinical pharmacistb for more information.</t>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -551,199 +523,6 @@
   <si>
     <r>
       <t>Based on the genotype result, this patient is predicted to be a DPYD Poor Metabolizer (Activity score 0) and has an increased risk of severe toxicity when treated with capecitabine.  Avoid use of 5-fluoruracil or 5-fluoruracil prodrug-based regimens in this patient. Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DPYD genotype may be useful for tegafur dosing and use.  A DPYD genotype does not appear to have been ordered for this patient. Use of an alternative dose or agent may be recommended. Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1.5) and has an increased risk of severe toxicity when treated with tegafur.  Reduce starting dose by 25% to 50% followed by titration of dose based on toxicity</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or therapeutic drug monitoring (if available). Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Based on the genotype result, this patient is predicted to be a DPYD Intermediate Metabolizer (Activity score 1) and has an increased risk of severe toxicity when treated with tegafur.  Reduce starting dose by 50% followed by titration of dose based on toxicity</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or therapeutic drug monitoring (if available). Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Based on the genotype result, this patient is predicted to be a DPYD Poor Metabolizer (Activity score 0.5) and has an increased risk of severe toxicity when treated with tegafur.  Avoid use of 5-fluoruracil or 5-fluoruracil prodrug-based regimens in this patient. In the event, based on clinical advice, alternative agents are not considered a suitable therapeutic option, tegafur should be administered at a strongly reduced dose</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with early therapeutic drug monitoring in order to immediately discontinue therapy if the drug level is too high.  Please consult a clinical pharmacist</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for more information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Based on the genotype result, this patient is predicted to be a DPYD Poor Metabolizer (Activity score 0) and has an increased risk of severe toxicity when treated with tegafur.  Avoid use of 5-fluoruracil or 5-fluoruracil prodrug-based regimens in this patient. Please consult a clinical pharmacist</t>
     </r>
     <r>
       <rPr>
@@ -1330,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1341,11 +1120,10 @@
     <col min="1" max="1" width="24" style="4" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
     <col min="3" max="4" width="49.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="4"/>
+    <col min="5" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1358,138 +1136,116 @@
       <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="101.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="153.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
